--- a/KiCAD/KiCAD_Gentlman_V5.3/Dataseets/V5.2/201228 CPP-093AB(demo2)_BOM.xlsx
+++ b/KiCAD/KiCAD_Gentlman_V5.3/Dataseets/V5.2/201228 CPP-093AB(demo2)_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubProject\ProjectG20211010\KiCAD\KiCAD_Gentlman_V5.3\Dataseets\V5.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B73346-3472-4CCC-B4C0-1A2E31DFD658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D0DDA1-DF78-41CF-A774-4656FE4D423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16440" yWindow="285" windowWidth="17220" windowHeight="15570" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-CPP-093AB_2" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="bom" sheetId="3" r:id="rId3"/>
     <sheet name="Lib" sheetId="4" r:id="rId4"/>
     <sheet name="KiCAD_Gentlman_V5.3" sheetId="5" r:id="rId5"/>
+    <sheet name="Blue" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Bill of Materials-CPP-093AB'!$1:$1</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="463">
   <si>
     <t>Description</t>
   </si>
@@ -1423,12 +1424,317 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>3.9nH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ic114.com/AJAXWWW/SITE/sc/00V0.aspx?ID_P=P0073606</t>
+  </si>
+  <si>
+    <t>CTC CERATECH CORPORATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHIP CERAMIC INDUCTOR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ic114.com/AJAXWWW/SITE/sc/00V0.aspx?ID_P=P0068942</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any Vendor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7UF10VDC-0603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2 C5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3 C4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N.M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8 C9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32MHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10 C11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1313423</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J 50V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K 16V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K 10V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 pF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacitor, NP0, ±2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 pF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacitor, NP0, ±5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4, C5, C8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 nF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacitor, X7R, ±10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N.C.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not mounted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 pF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7 µF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacitor, X5R, ±10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0 µF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9 nH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>High frequency chip inductor ±5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nRF52832-QFAA and nRF52832-QFAB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN-48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 MHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTAL SMD 2016, 32 MHz, Cl=8 pF, total tol. ±40 ppm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTAL_2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.768 kHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTAL SMD 3215, 32.768 kHz, CI=9 pF, total tol. ±50 ppm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTAL_3215</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/ProductDetail/Murata/GRM1555C1H120GA01D?qs=sGAEpiMZZMtdo5lL%2F%252BX2B7q3hzjcVI5JhYBDR1FVZIU%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/ProductDetail/Murata/GRM1555C1HR80WA01D?qs=sGAEpiMZZMtdo5lL%2F%252BX2Byub74eyjdY1y6HztYtNWBY%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/ProductDetail/Murata/GRM155R61H104KE14D?qs=sGAEpiMZZMukxKgYRb08uPVEVYQYvHC0jvEy%252BH3sJNw%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL05A475KQ5NRNC?qs=X6jEic%2FHinBIPheTTTuvlQ%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/ProductDetail/Murata/GRM155R61A104JA01D?qs=sGAEpiMZZMtXHE36kCvv32LHj7OMC8QtNwhl0HevZGI%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL05A105KP5NNWC?qs=81r%252BiQLm7BSFmKwLEt%252Biyw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/ProductDetail/Wurth-Elektronik/7447840039G?qs=aP1CjGhiNiENAb6ISdWObg%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10901051</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C1, C2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> C11, C12</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/ProductDetail/ECS/ECS-320-8-37B-7KM-TR?qs=B6kkDfuK7%2FBj%252BRFY6Ck%252BZA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nordic Semiconductor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -1468,6 +1774,19 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1673,13 +1992,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1812,10 +2132,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{C8446BE8-ACF3-4E33-836C-10F546403A69}"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2157,7 +2482,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3561,7 +3886,9 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4468,7 +4795,9 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="E1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6165,7 +6494,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
-        <f t="shared" ref="A6:A13" si="1">A5+1</f>
+        <f t="shared" ref="A6" si="1">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="46" t="str" cm="1">
@@ -6186,7 +6515,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
-        <f t="shared" ref="A7:A13" si="2">A6</f>
+        <f t="shared" ref="A7:A9" si="2">A6</f>
         <v>2</v>
       </c>
       <c r="B7" s="49" t="str" cm="1">
@@ -6194,7 +6523,7 @@
         <v>103K/25V</v>
       </c>
       <c r="C7" s="49">
-        <f t="shared" ref="C7:C13" si="3">C6+1</f>
+        <f t="shared" ref="C7:C9" si="3">C6+1</f>
         <v>5</v>
       </c>
       <c r="D7" s="49" t="str">
@@ -6252,7 +6581,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
-        <f t="shared" ref="A10:A13" si="5">A9+1</f>
+        <f t="shared" ref="A10" si="5">A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" s="46" t="str" cm="1">
@@ -6426,7 +6755,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="45">
-        <f t="shared" ref="A18:A25" si="9">A17+1</f>
+        <f t="shared" ref="A18" si="9">A17+1</f>
         <v>5</v>
       </c>
       <c r="B18" s="46" t="str" cm="1">
@@ -6447,7 +6776,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="48">
-        <f t="shared" ref="A19:A25" si="10">A18</f>
+        <f t="shared" ref="A19:A21" si="10">A18</f>
         <v>5</v>
       </c>
       <c r="B19" s="49" t="str" cm="1">
@@ -6455,7 +6784,7 @@
         <v>FS43X105K251EGG</v>
       </c>
       <c r="C19" s="49">
-        <f t="shared" ref="C19:C25" si="11">C18+1</f>
+        <f t="shared" ref="C19:C21" si="11">C18+1</f>
         <v>5</v>
       </c>
       <c r="D19" s="49" t="str">
@@ -6513,7 +6842,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="45">
-        <f t="shared" ref="A22:A25" si="12">A21+1</f>
+        <f t="shared" ref="A22" si="12">A21+1</f>
         <v>6</v>
       </c>
       <c r="B22" s="46" t="str" cm="1">
@@ -6687,7 +7016,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="45">
-        <f t="shared" ref="A30:A37" si="16">A29+1</f>
+        <f t="shared" ref="A30" si="16">A29+1</f>
         <v>8</v>
       </c>
       <c r="B30" s="46" t="str" cm="1">
@@ -6708,7 +7037,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="48">
-        <f t="shared" ref="A31:A37" si="17">A30</f>
+        <f t="shared" ref="A31:A33" si="17">A30</f>
         <v>8</v>
       </c>
       <c r="B31" s="49" t="str" cm="1">
@@ -6716,7 +7045,7 @@
         <v>BL-HBHG8JE36K-TRB-T05</v>
       </c>
       <c r="C31" s="49">
-        <f t="shared" ref="C31:C37" si="18">C30+1</f>
+        <f t="shared" ref="C31:C33" si="18">C30+1</f>
         <v>5</v>
       </c>
       <c r="D31" s="49" t="str">
@@ -6774,7 +7103,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="45">
-        <f t="shared" ref="A34:A37" si="19">A33+1</f>
+        <f t="shared" ref="A34" si="19">A33+1</f>
         <v>9</v>
       </c>
       <c r="B34" s="46" t="str" cm="1">
@@ -6948,7 +7277,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="45">
-        <f t="shared" ref="A42:A49" si="23">A41+1</f>
+        <f t="shared" ref="A42" si="23">A41+1</f>
         <v>11</v>
       </c>
       <c r="B42" s="46" t="str" cm="1">
@@ -6969,7 +7298,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="48">
-        <f t="shared" ref="A43:A49" si="24">A42</f>
+        <f t="shared" ref="A43:A45" si="24">A42</f>
         <v>11</v>
       </c>
       <c r="B43" s="49" t="str" cm="1">
@@ -7035,7 +7364,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
-        <f t="shared" ref="A46:A49" si="25">A45+1</f>
+        <f t="shared" ref="A46" si="25">A45+1</f>
         <v>12</v>
       </c>
       <c r="B46" s="46" t="str" cm="1">
@@ -7209,7 +7538,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
-        <f t="shared" ref="A54:A61" si="28">A53+1</f>
+        <f t="shared" ref="A54" si="28">A53+1</f>
         <v>14</v>
       </c>
       <c r="B54" s="46" t="str" cm="1">
@@ -7230,7 +7559,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="48">
-        <f t="shared" ref="A55:A61" si="29">A54</f>
+        <f t="shared" ref="A55:A57" si="29">A54</f>
         <v>14</v>
       </c>
       <c r="B55" s="49" t="str" cm="1">
@@ -7296,7 +7625,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="45">
-        <f t="shared" ref="A58:A61" si="30">A57+1</f>
+        <f t="shared" ref="A58" si="30">A57+1</f>
         <v>15</v>
       </c>
       <c r="B58" s="46" t="str" cm="1">
@@ -7470,7 +7799,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
-        <f t="shared" ref="A66:A73" si="33">A65+1</f>
+        <f t="shared" ref="A66" si="33">A65+1</f>
         <v>17</v>
       </c>
       <c r="B66" s="46" t="str" cm="1">
@@ -7491,7 +7820,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="48">
-        <f t="shared" ref="A67:A73" si="34">A66</f>
+        <f t="shared" ref="A67:A69" si="34">A66</f>
         <v>17</v>
       </c>
       <c r="B67" s="49" t="str" cm="1">
@@ -7557,7 +7886,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="45">
-        <f t="shared" ref="A70:A73" si="35">A69+1</f>
+        <f t="shared" ref="A70" si="35">A69+1</f>
         <v>18</v>
       </c>
       <c r="B70" s="46" t="str" cm="1">
@@ -7731,7 +8060,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="45">
-        <f t="shared" ref="A78:A85" si="38">A77+1</f>
+        <f t="shared" ref="A78" si="38">A77+1</f>
         <v>20</v>
       </c>
       <c r="B78" s="46" t="str" cm="1">
@@ -7752,7 +8081,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="48">
-        <f t="shared" ref="A79:A85" si="39">A78</f>
+        <f t="shared" ref="A79:A81" si="39">A78</f>
         <v>20</v>
       </c>
       <c r="B79" s="49" t="str" cm="1">
@@ -7818,7 +8147,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="45">
-        <f t="shared" ref="A82:A85" si="40">A81+1</f>
+        <f t="shared" ref="A82" si="40">A81+1</f>
         <v>21</v>
       </c>
       <c r="B82" s="46" t="str" cm="1">
@@ -7992,7 +8321,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="45">
-        <f t="shared" ref="A90:A97" si="43">A89+1</f>
+        <f t="shared" ref="A90" si="43">A89+1</f>
         <v>23</v>
       </c>
       <c r="B90" s="46" t="str" cm="1">
@@ -8013,7 +8342,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48">
-        <f t="shared" ref="A91:A97" si="44">A90</f>
+        <f t="shared" ref="A91:A93" si="44">A90</f>
         <v>23</v>
       </c>
       <c r="B91" s="49" t="str" cm="1">
@@ -8079,7 +8408,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="45">
-        <f t="shared" ref="A94:A97" si="45">A93+1</f>
+        <f t="shared" ref="A94" si="45">A93+1</f>
         <v>24</v>
       </c>
       <c r="B94" s="46" t="str" cm="1">
@@ -8253,7 +8582,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="45">
-        <f t="shared" ref="A102:A109" si="49">A101+1</f>
+        <f t="shared" ref="A102" si="49">A101+1</f>
         <v>26</v>
       </c>
       <c r="B102" s="46" t="str" cm="1">
@@ -8274,7 +8603,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="48">
-        <f t="shared" ref="A103:A109" si="50">A102</f>
+        <f t="shared" ref="A103:A105" si="50">A102</f>
         <v>26</v>
       </c>
       <c r="B103" s="49" t="str" cm="1">
@@ -8282,7 +8611,7 @@
         <v>2SA1981SY</v>
       </c>
       <c r="C103" s="49">
-        <f t="shared" ref="C103:C109" si="51">C102+1</f>
+        <f t="shared" ref="C103:C105" si="51">C102+1</f>
         <v>5</v>
       </c>
       <c r="D103" s="49" t="str">
@@ -8340,7 +8669,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="45">
-        <f t="shared" ref="A106:A109" si="52">A105+1</f>
+        <f t="shared" ref="A106" si="52">A105+1</f>
         <v>27</v>
       </c>
       <c r="B106" s="46" t="str" cm="1">
@@ -8514,7 +8843,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="45">
-        <f t="shared" ref="A114:A121" si="56">A113+1</f>
+        <f t="shared" ref="A114" si="56">A113+1</f>
         <v>29</v>
       </c>
       <c r="B114" s="46" t="str" cm="1">
@@ -8535,7 +8864,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="48">
-        <f t="shared" ref="A115:A121" si="57">A114</f>
+        <f t="shared" ref="A115:A117" si="57">A114</f>
         <v>29</v>
       </c>
       <c r="B115" s="49" t="str" cm="1">
@@ -8543,7 +8872,7 @@
         <v>ULN2003D1013TR</v>
       </c>
       <c r="C115" s="49">
-        <f t="shared" ref="C115:C121" si="58">C114+1</f>
+        <f t="shared" ref="C115:C117" si="58">C114+1</f>
         <v>5</v>
       </c>
       <c r="D115" s="49" t="str">
@@ -8601,7 +8930,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="45">
-        <f t="shared" ref="A118:A121" si="59">A117+1</f>
+        <f t="shared" ref="A118" si="59">A117+1</f>
         <v>30</v>
       </c>
       <c r="B118" s="46" t="str" cm="1">
@@ -8775,7 +9104,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="45">
-        <f t="shared" ref="A126:A133" si="63">A125+1</f>
+        <f t="shared" ref="A126" si="63">A125+1</f>
         <v>32</v>
       </c>
       <c r="B126" s="46" t="str" cm="1">
@@ -8796,7 +9125,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="48">
-        <f t="shared" ref="A127:A133" si="64">A126</f>
+        <f t="shared" ref="A127:A129" si="64">A126</f>
         <v>32</v>
       </c>
       <c r="B127" s="49" t="str" cm="1">
@@ -8804,7 +9133,7 @@
         <v>220uF/6.3V</v>
       </c>
       <c r="C127" s="49">
-        <f t="shared" ref="C127:C133" si="65">C126+1</f>
+        <f t="shared" ref="C127:C129" si="65">C126+1</f>
         <v>5</v>
       </c>
       <c r="D127" s="49" t="str">
@@ -8862,7 +9191,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="45">
-        <f t="shared" ref="A130:A133" si="66">A129+1</f>
+        <f t="shared" ref="A130" si="66">A129+1</f>
         <v>33</v>
       </c>
       <c r="B130" s="46" t="str" cm="1">
@@ -9036,7 +9365,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="45">
-        <f t="shared" ref="A138:A145" si="70">A137+1</f>
+        <f t="shared" ref="A138" si="70">A137+1</f>
         <v>35</v>
       </c>
       <c r="B138" s="46" t="str" cm="1">
@@ -9057,7 +9386,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="48">
-        <f t="shared" ref="A139:A145" si="71">A138</f>
+        <f t="shared" ref="A139:A141" si="71">A138</f>
         <v>35</v>
       </c>
       <c r="B139" s="49" t="str" cm="1">
@@ -9065,7 +9394,7 @@
         <v>STM32G070RBT6</v>
       </c>
       <c r="C139" s="49">
-        <f t="shared" ref="C139:C145" si="72">C138+1</f>
+        <f t="shared" ref="C139:C141" si="72">C138+1</f>
         <v>5</v>
       </c>
       <c r="D139" s="49" t="str">
@@ -9123,7 +9452,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="45">
-        <f t="shared" ref="A142:A145" si="73">A141+1</f>
+        <f t="shared" ref="A142" si="73">A141+1</f>
         <v>36</v>
       </c>
       <c r="B142" s="46" t="str" cm="1">
@@ -9297,7 +9626,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="45">
-        <f t="shared" ref="A150:A157" si="77">A149+1</f>
+        <f t="shared" ref="A150" si="77">A149+1</f>
         <v>38</v>
       </c>
       <c r="B150" s="46" t="str" cm="1">
@@ -9318,7 +9647,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="48">
-        <f t="shared" ref="A151:A157" si="78">A150</f>
+        <f t="shared" ref="A151:A153" si="78">A150</f>
         <v>38</v>
       </c>
       <c r="B151" s="49" t="str" cm="1">
@@ -9326,7 +9655,7 @@
         <v>W25Q32JVSSIQ</v>
       </c>
       <c r="C151" s="49">
-        <f t="shared" ref="C151:C157" si="79">C150+1</f>
+        <f t="shared" ref="C151:C153" si="79">C150+1</f>
         <v>5</v>
       </c>
       <c r="D151" s="49" t="str">
@@ -9384,7 +9713,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="45">
-        <f t="shared" ref="A154:A157" si="80">A153+1</f>
+        <f t="shared" ref="A154" si="80">A153+1</f>
         <v>39</v>
       </c>
       <c r="B154" s="46" t="str" cm="1">
@@ -9558,7 +9887,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="45">
-        <f t="shared" ref="A162:A169" si="84">A161+1</f>
+        <f t="shared" ref="A162" si="84">A161+1</f>
         <v>41</v>
       </c>
       <c r="B162" s="46" t="str" cm="1">
@@ -9579,7 +9908,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="48">
-        <f t="shared" ref="A163:A169" si="85">A162</f>
+        <f t="shared" ref="A163:A165" si="85">A162</f>
         <v>41</v>
       </c>
       <c r="B163" s="49" t="str" cm="1">
@@ -9587,7 +9916,7 @@
         <v>12505WS-08</v>
       </c>
       <c r="C163" s="49">
-        <f t="shared" ref="C163:C169" si="86">C162+1</f>
+        <f t="shared" ref="C163:C165" si="86">C162+1</f>
         <v>5</v>
       </c>
       <c r="D163" s="49" t="str">
@@ -9645,7 +9974,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="45">
-        <f t="shared" ref="A166:A169" si="87">A165+1</f>
+        <f t="shared" ref="A166" si="87">A165+1</f>
         <v>42</v>
       </c>
       <c r="B166" s="46" t="str" cm="1">
@@ -11481,4 +11810,426 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDD58F8-05CF-4673-8D90-9BC6CFC35BE9}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="67.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2">
+        <v>1608</v>
+      </c>
+      <c r="F2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3">
+        <v>1608</v>
+      </c>
+      <c r="G3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4">
+        <v>1608</v>
+      </c>
+      <c r="F4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5">
+        <v>1608</v>
+      </c>
+      <c r="G5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8">
+        <v>1608</v>
+      </c>
+      <c r="G8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f>UPPER(G36)</f>
+        <v>NORDIC SEMICONDUCTOR</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" t="s">
+        <v>449</v>
+      </c>
+      <c r="G18" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F19" t="s">
+        <v>449</v>
+      </c>
+      <c r="G19" t="s">
+        <v>424</v>
+      </c>
+      <c r="H19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E20" t="s">
+        <v>450</v>
+      </c>
+      <c r="F20" t="s">
+        <v>449</v>
+      </c>
+      <c r="G20" t="s">
+        <v>427</v>
+      </c>
+      <c r="H20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" t="s">
+        <v>450</v>
+      </c>
+      <c r="G21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" t="s">
+        <v>430</v>
+      </c>
+      <c r="E22" t="s">
+        <v>450</v>
+      </c>
+      <c r="G22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E23" t="s">
+        <v>450</v>
+      </c>
+      <c r="F23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G23" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" t="s">
+        <v>450</v>
+      </c>
+      <c r="G24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" t="s">
+        <v>450</v>
+      </c>
+      <c r="G25" t="s">
+        <v>437</v>
+      </c>
+      <c r="H25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" t="s">
+        <v>440</v>
+      </c>
+      <c r="H26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>441</v>
+      </c>
+      <c r="D27" t="s">
+        <v>442</v>
+      </c>
+      <c r="E27" t="s">
+        <v>444</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="H27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>445</v>
+      </c>
+      <c r="D28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E28" t="s">
+        <v>448</v>
+      </c>
+      <c r="G28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="26">
+        <f>12*12/(12+12)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="26"/>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H22" r:id="rId1" xr:uid="{AAC88851-0E5F-4EB8-B60C-BFE853DAACCD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>